--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_lossmod.xlsx
@@ -14,276 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.79331307371628</t>
-  </si>
-  <si>
-    <t>92.20576685072353</t>
-  </si>
-  <si>
-    <t>92.71449311826787</t>
-  </si>
-  <si>
-    <t>93.30713299695353</t>
-  </si>
-  <si>
-    <t>94.39626174155876</t>
-  </si>
-  <si>
-    <t>95.97582788974164</t>
-  </si>
-  <si>
-    <t>97.33813309215536</t>
-  </si>
-  <si>
-    <t>98.2999928598629</t>
-  </si>
-  <si>
-    <t>99.65834444021326</t>
-  </si>
-  <si>
-    <t>101.07788302868748</t>
-  </si>
-  <si>
-    <t>102.74216964965727</t>
-  </si>
-  <si>
-    <t>104.39421886900229</t>
-  </si>
-  <si>
-    <t>105.62040651180502</t>
-  </si>
-  <si>
-    <t>106.56023895658797</t>
-  </si>
-  <si>
-    <t>107.73502951256664</t>
-  </si>
-  <si>
-    <t>109.05666888804265</t>
-  </si>
-  <si>
-    <t>110.23145944402133</t>
-  </si>
-  <si>
-    <t>111.40625</t>
-  </si>
-  <si>
-    <t>112.27265803503427</t>
-  </si>
-  <si>
-    <t>113.60898229246001</t>
-  </si>
-  <si>
-    <t>114.8164059194381</t>
-  </si>
-  <si>
-    <t>116.25226104341203</t>
-  </si>
-  <si>
-    <t>117.44540770182788</t>
-  </si>
-  <si>
-    <t>118.74869097486672</t>
-  </si>
-  <si>
-    <t>120.21717916984007</t>
-  </si>
-  <si>
-    <t>121.83251618431075</t>
-  </si>
-  <si>
-    <t>123.44785319878142</t>
-  </si>
-  <si>
-    <t>125.0631902132521</t>
-  </si>
-  <si>
-    <t>126.67852722772278</t>
-  </si>
-  <si>
-    <t>128.29386424219345</t>
-  </si>
-  <si>
-    <t>129.90920125666412</t>
-  </si>
-  <si>
-    <t>131.52453827113482</t>
-  </si>
-  <si>
-    <t>133.13987528560548</t>
-  </si>
-  <si>
-    <t>134.75521230007615</t>
-  </si>
-  <si>
-    <t>136.37054931454685</t>
-  </si>
-  <si>
-    <t>137.98588632901752</t>
-  </si>
-  <si>
-    <t>139.6012233434882</t>
-  </si>
-  <si>
-    <t>141.21656035795888</t>
-  </si>
-  <si>
-    <t>142.83189737242955</t>
-  </si>
-  <si>
-    <t>144.44723438690022</t>
-  </si>
-  <si>
-    <t>146.06257140137092</t>
-  </si>
-  <si>
-    <t>147.67790841584159</t>
-  </si>
-  <si>
-    <t>149.29324543031225</t>
-  </si>
-  <si>
-    <t>150.3211871667936</t>
-  </si>
-  <si>
-    <t>408238.29835131543</t>
-  </si>
-  <si>
-    <t>489739.76587368106</t>
-  </si>
-  <si>
-    <t>590713.0938697064</t>
-  </si>
-  <si>
-    <t>729392.6774968777</t>
-  </si>
-  <si>
-    <t>916213.3086109029</t>
-  </si>
-  <si>
-    <t>1067251.555863516</t>
-  </si>
-  <si>
-    <t>1369468.9609762318</t>
-  </si>
-  <si>
-    <t>1670213.4539720858</t>
-  </si>
-  <si>
-    <t>2143612.119316153</t>
-  </si>
-  <si>
-    <t>2673515.924910447</t>
-  </si>
-  <si>
-    <t>2918091.411142463</t>
-  </si>
-  <si>
-    <t>2670383.4156286013</t>
-  </si>
-  <si>
-    <t>2202811.1266260077</t>
-  </si>
-  <si>
-    <t>1756199.7764317614</t>
-  </si>
-  <si>
-    <t>1478580.907385191</t>
-  </si>
-  <si>
-    <t>1247351.4741773908</t>
-  </si>
-  <si>
-    <t>942556.9325533728</t>
-  </si>
-  <si>
-    <t>758783.1720176951</t>
-  </si>
-  <si>
-    <t>628990.5759979354</t>
-  </si>
-  <si>
-    <t>539186.8580057231</t>
-  </si>
-  <si>
-    <t>431286.9878529454</t>
-  </si>
-  <si>
-    <t>353492.08977074886</t>
-  </si>
-  <si>
-    <t>297250.0432958666</t>
-  </si>
-  <si>
-    <t>246220.6102171783</t>
-  </si>
-  <si>
-    <t>208390.8675559366</t>
-  </si>
-  <si>
-    <t>176123.81301501402</t>
-  </si>
-  <si>
-    <t>153679.37357296768</t>
-  </si>
-  <si>
-    <t>132237.36634102577</t>
-  </si>
-  <si>
-    <t>113685.75829726635</t>
-  </si>
-  <si>
-    <t>100026.0498820103</t>
-  </si>
-  <si>
-    <t>91741.94426403221</t>
-  </si>
-  <si>
-    <t>83298.98935870585</t>
-  </si>
-  <si>
-    <t>75588.14709513828</t>
-  </si>
-  <si>
-    <t>69637.34584045554</t>
-  </si>
-  <si>
-    <t>64135.9907492706</t>
-  </si>
-  <si>
-    <t>58866.202427493015</t>
-  </si>
-  <si>
-    <t>55917.2005172237</t>
-  </si>
-  <si>
-    <t>53337.12443728609</t>
-  </si>
-  <si>
-    <t>51312.88802509327</t>
-  </si>
-  <si>
-    <t>47795.249799465266</t>
-  </si>
-  <si>
-    <t>46476.706171050304</t>
-  </si>
-  <si>
-    <t>44987.07971182464</t>
-  </si>
-  <si>
-    <t>42801.92792020869</t>
-  </si>
-  <si>
-    <t>42915.017115049166</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -656,355 +392,355 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="A2">
+        <v>90.79331307371628</v>
+      </c>
+      <c r="B2">
+        <v>408238.2983513154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="A3">
+        <v>92.20576685072353</v>
+      </c>
+      <c r="B3">
+        <v>489739.7658736811</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="A4">
+        <v>92.71449311826787</v>
+      </c>
+      <c r="B4">
+        <v>590713.0938697064</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
+      <c r="A5">
+        <v>93.30713299695353</v>
+      </c>
+      <c r="B5">
+        <v>729392.6774968777</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="A6">
+        <v>94.39626174155876</v>
+      </c>
+      <c r="B6">
+        <v>916213.3086109029</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
+      <c r="A7">
+        <v>95.97582788974164</v>
+      </c>
+      <c r="B7">
+        <v>1067251.555863516</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
+      <c r="A8">
+        <v>97.33813309215536</v>
+      </c>
+      <c r="B8">
+        <v>1369468.960976232</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="A9">
+        <v>98.2999928598629</v>
+      </c>
+      <c r="B9">
+        <v>1670213.453972086</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
+      <c r="A10">
+        <v>99.65834444021326</v>
+      </c>
+      <c r="B10">
+        <v>2143612.119316153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
+      <c r="A11">
+        <v>101.0778830286875</v>
+      </c>
+      <c r="B11">
+        <v>2673515.924910447</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="A12">
+        <v>102.7421696496573</v>
+      </c>
+      <c r="B12">
+        <v>2918091.411142463</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
+      <c r="A13">
+        <v>104.3942188690023</v>
+      </c>
+      <c r="B13">
+        <v>2670383.415628601</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
+      <c r="A14">
+        <v>105.620406511805</v>
+      </c>
+      <c r="B14">
+        <v>2202811.126626008</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
+      <c r="A15">
+        <v>106.560238956588</v>
+      </c>
+      <c r="B15">
+        <v>1756199.776431761</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="A16">
+        <v>107.7350295125666</v>
+      </c>
+      <c r="B16">
+        <v>1478580.907385191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+      <c r="A17">
+        <v>109.0566688880427</v>
+      </c>
+      <c r="B17">
+        <v>1247351.474177391</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="A18">
+        <v>110.2314594440213</v>
+      </c>
+      <c r="B18">
+        <v>942556.9325533728</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
+      <c r="A19">
+        <v>111.40625</v>
+      </c>
+      <c r="B19">
+        <v>758783.1720176951</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
+      <c r="A20">
+        <v>112.2726580350343</v>
+      </c>
+      <c r="B20">
+        <v>628990.5759979354</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
+      <c r="A21">
+        <v>113.60898229246</v>
+      </c>
+      <c r="B21">
+        <v>539186.8580057231</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
+      <c r="A22">
+        <v>114.8164059194381</v>
+      </c>
+      <c r="B22">
+        <v>431286.9878529454</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
+      <c r="A23">
+        <v>116.252261043412</v>
+      </c>
+      <c r="B23">
+        <v>353492.0897707489</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
+      <c r="A24">
+        <v>117.4454077018279</v>
+      </c>
+      <c r="B24">
+        <v>297250.0432958666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
+      <c r="A25">
+        <v>118.7486909748667</v>
+      </c>
+      <c r="B25">
+        <v>246220.6102171783</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+      <c r="A26">
+        <v>120.2171791698401</v>
+      </c>
+      <c r="B26">
+        <v>208390.8675559366</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
+      <c r="A27">
+        <v>121.8325161843107</v>
+      </c>
+      <c r="B27">
+        <v>176123.813015014</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
+      <c r="A28">
+        <v>123.4478531987814</v>
+      </c>
+      <c r="B28">
+        <v>153679.3735729677</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
+      <c r="A29">
+        <v>125.0631902132521</v>
+      </c>
+      <c r="B29">
+        <v>132237.3663410258</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
+      <c r="A30">
+        <v>126.6785272277228</v>
+      </c>
+      <c r="B30">
+        <v>113685.7582972664</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
+      <c r="A31">
+        <v>128.2938642421935</v>
+      </c>
+      <c r="B31">
+        <v>100026.0498820103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
+      <c r="A32">
+        <v>129.9092012566641</v>
+      </c>
+      <c r="B32">
+        <v>91741.94426403221</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
+      <c r="A33">
+        <v>131.5245382711348</v>
+      </c>
+      <c r="B33">
+        <v>83298.98935870585</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
+      <c r="A34">
+        <v>133.1398752856055</v>
+      </c>
+      <c r="B34">
+        <v>75588.14709513828</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
+      <c r="A35">
+        <v>134.7552123000762</v>
+      </c>
+      <c r="B35">
+        <v>69637.34584045554</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
+      <c r="A36">
+        <v>136.3705493145468</v>
+      </c>
+      <c r="B36">
+        <v>64135.9907492706</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
+      <c r="A37">
+        <v>137.9858863290175</v>
+      </c>
+      <c r="B37">
+        <v>58866.20242749302</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
+      <c r="A38">
+        <v>139.6012233434882</v>
+      </c>
+      <c r="B38">
+        <v>55917.2005172237</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
+      <c r="A39">
+        <v>141.2165603579589</v>
+      </c>
+      <c r="B39">
+        <v>53337.12443728609</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
+      <c r="A40">
+        <v>142.8318973724296</v>
+      </c>
+      <c r="B40">
+        <v>51312.88802509327</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
+      <c r="A41">
+        <v>144.4472343869002</v>
+      </c>
+      <c r="B41">
+        <v>47795.24979946527</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
+      <c r="A42">
+        <v>146.0625714013709</v>
+      </c>
+      <c r="B42">
+        <v>46476.7061710503</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
+      <c r="A43">
+        <v>147.6779084158416</v>
+      </c>
+      <c r="B43">
+        <v>44987.07971182464</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
+      <c r="A44">
+        <v>149.2932454303123</v>
+      </c>
+      <c r="B44">
+        <v>42801.92792020869</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
+      <c r="A45">
+        <v>150.3211871667936</v>
+      </c>
+      <c r="B45">
+        <v>42915.01711504917</v>
       </c>
     </row>
   </sheetData>
